--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20632" windowHeight="7877"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>编号</t>
   </si>
@@ -206,6 +206,51 @@
   </si>
   <si>
     <t>获取管理员列表成功</t>
+  </si>
+  <si>
+    <t>新增成功</t>
+  </si>
+  <si>
+    <t>添加一个用户，添加成功</t>
+  </si>
+  <si>
+    <t>{ "username": "jay","password": "123456"}</t>
+  </si>
+  <si>
+    <t>创建成功</t>
+  </si>
+  <si>
+    <t>{"new_id":"$.data.id"}</t>
+  </si>
+  <si>
+    <t>修改成功</t>
+  </si>
+  <si>
+    <t>修改用户状态，修改成功</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>/users/{{new_id}}/state/true</t>
+  </si>
+  <si>
+    <t>设置状态成功</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
+    <t>上传成功</t>
+  </si>
+  <si>
+    <t>文件上传成功</t>
+  </si>
+  <si>
+    <t>/upload</t>
+  </si>
+  <si>
+    <t>{"file":("1.png",open("./file/1.png","rb"),"png")}</t>
   </si>
 </sst>
 </file>
@@ -860,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,18 +922,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1202,31 +1244,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="14.1495327102804" customWidth="1"/>
-    <col min="3" max="3" width="11.7476635514019" customWidth="1"/>
-    <col min="4" max="4" width="27.9158878504673" customWidth="1"/>
-    <col min="5" max="5" width="11.8504672897196" customWidth="1"/>
-    <col min="7" max="7" width="17.6728971962617" customWidth="1"/>
-    <col min="8" max="8" width="16.7663551401869" customWidth="1"/>
-    <col min="9" max="9" width="19.7757009345794" customWidth="1"/>
-    <col min="10" max="12" width="14.0560747663551" customWidth="1"/>
-    <col min="13" max="13" width="18.4766355140187" customWidth="1"/>
-    <col min="14" max="14" width="27.5140186915888" customWidth="1"/>
-    <col min="15" max="15" width="22.8971962616822" customWidth="1"/>
-    <col min="16" max="16" width="20.5794392523364" customWidth="1"/>
-    <col min="17" max="17" width="19.981308411215" customWidth="1"/>
-    <col min="18" max="18" width="15.4672897196262" customWidth="1"/>
+    <col min="2" max="2" width="14.1481481481481" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="27.9166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8518518518519" customWidth="1"/>
+    <col min="6" max="6" width="19.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="34.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="16.7685185185185" customWidth="1"/>
+    <col min="9" max="9" width="19.7777777777778" customWidth="1"/>
+    <col min="10" max="12" width="14.0555555555556" customWidth="1"/>
+    <col min="13" max="13" width="18.4722222222222" customWidth="1"/>
+    <col min="14" max="14" width="27.5185185185185" customWidth="1"/>
+    <col min="15" max="15" width="22.8981481481481" customWidth="1"/>
+    <col min="16" max="16" width="20.5833333333333" customWidth="1"/>
+    <col min="17" max="17" width="19.9814814814815" customWidth="1"/>
+    <col min="18" max="18" width="15.462962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="19.9" spans="1:18">
+    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="55.9" spans="1:18">
+    <row r="3" s="3" customFormat="1" ht="57.6" spans="1:18">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1359,7 +1402,7 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="6"/>
@@ -1370,23 +1413,23 @@
       <c r="M3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="6" t="s">
         <v>43</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="6" t="s">
         <v>46</v>
       </c>
       <c r="R3" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="27.95" spans="1:18">
+    <row r="4" s="3" customFormat="1" ht="28.8" spans="1:18">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1406,7 +1449,7 @@
         <v>51</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I4" s="6"/>
@@ -1424,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="27.95" spans="1:18">
+    <row r="5" ht="28.8" spans="1:18">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1446,13 +1489,15 @@
       <c r="G5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>57</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M5" s="6" t="s">
         <v>58</v>
       </c>
@@ -1464,11 +1509,140 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" ht="43.2" spans="1:18">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="1:18">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="57.6" spans="1:18">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="/login"/>
     <hyperlink ref="F4" r:id="rId2" display="/users"/>
     <hyperlink ref="F5" r:id="rId2" display="/users"/>
+    <hyperlink ref="F7" r:id="rId2" display="/users/{{new_id}}/state/true"/>
+    <hyperlink ref="F6" r:id="rId2" display="/users"/>
+    <hyperlink ref="F8" r:id="rId2" display="/upload"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1485,7 +1659,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1502,7 +1676,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="R7" sqref="A1:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:18">
@@ -1590,7 +1590,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="57.6" spans="1:18">
